--- a/excelQuestions.xlsx
+++ b/excelQuestions.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t xml:space="preserve">Регистрация Viomitra.Коммерческие торги</t>
   </si>
   <si>
-    <t xml:space="preserve">Как зарегистрироваться</t>
+    <t xml:space="preserve">Как зарегистрироваться Viomitra.Коммерческие торги</t>
   </si>
   <si>
     <t xml:space="preserve">Для регистрации необходимо:
@@ -42,7 +42,7 @@
 **Внимание! Пароль должен содержать от 6 до 16 символов, как минимум одну строчную, одну заглавную буквы и одну цифру. Пароль не может совпадать с адресом и паролем от вашей электронной почты, именем, фамилией или псевдонимом.</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое «псевдоним»</t>
+    <t xml:space="preserve">Что такое «псевдоним» Viomitra.Коммерческие торги</t>
   </si>
   <si>
     <t xml:space="preserve">Псевдоним - имя пользователя (ник, логин) на торговой площадке, используется для входа на торговую площадку и виден другим пользователям.
@@ -53,7 +53,7 @@
     <t xml:space="preserve">Покупка Viomitra.Коммерческие торги</t>
   </si>
   <si>
-    <t xml:space="preserve">Как купить</t>
+    <t xml:space="preserve">Как купить Viomitra.Коммерческие торги</t>
   </si>
   <si>
     <t xml:space="preserve">Товары на Viomitra называются лотами, имеющими определенные характеристики, условия продажи и стоимости. На торговой площадке и интернет-аукционе Viomitra товар можно приобрести по фиксированной цене либо через аукционные торги. 
@@ -64,7 +64,7 @@
     • Англо-голландский аукцион - торг, который идет в 2 этапа: вначале на понижение до определенной цены пока не найдется первый покупатель, который сделает ставку. После этого действия идет второй этап аукциона на повышение.</t>
   </si>
   <si>
-    <t xml:space="preserve">Обсуждение лота до покупки</t>
+    <t xml:space="preserve">Обсуждение лота до покупки Viomitra.Коммерческие торги</t>
   </si>
   <si>
     <t xml:space="preserve">обсуждение лота</t>
@@ -84,7 +84,7 @@
 Данное уведомление не будет содержать текст сообщения, а лишь информацию о его поступлении, псевдоним контрагента, номер и название лота. На сайте в верхней панели также появится конвертик, обозначающий соответствующее уведомление.</t>
   </si>
   <si>
-    <t xml:space="preserve">Поиск и фильтры</t>
+    <t xml:space="preserve">Поиск и фильтры Viomitra.Коммерческие торги</t>
   </si>
   <si>
     <t xml:space="preserve">С помощью поиска на торговой площадке вы можете найти товар или пользователя.
@@ -94,7 +94,7 @@
 Искать результаты в названии или описании лота.</t>
   </si>
   <si>
-    <t xml:space="preserve">Прохождение торгов</t>
+    <t xml:space="preserve">Прохождение торгов Viomitra.Коммерческие торги</t>
   </si>
   <si>
     <t xml:space="preserve">Чтобы приступить к торгам, Вам необходимо проверить свой счет. Для этого необходимо:
@@ -110,6 +110,280 @@
 4. Сделав ставку, Вы увидите, что на странице лота отображается список участников, которые тоже сделали ставки. 
 5. По завершению торгов продавец закрывает лот – победитель и продавец подписывают протокол торгов.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Возможности покупателя Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Избранные лоты Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если вас заинтересовал лот, для удобного и быстрого поиска добавьте его в «Избранные лоты». В верхней панели нажмите на значок «Избранное». Затем увидите в колонке слева:
+    • «активные» - действующие лоты;
+    • «неактивные» - лоты, которые в данное время не выставлены на продажу;
+    • «продавцы» -  список продавцов, на которых вы подписаны.
+Для удаления из «Избранное» нужно повторно нажать на знак «Избранное» или в самом лоте либо в профиле в списке "Избранные лоты" выделить конкретный или несколько лотов и нажать «Операции» &gt; «Удалить лот» или «Удалить все лоты».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чёрный список продавцов Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Товары нежелательных для Вас продавцов можно исключить из списка лотов следующим способом.
+Необходимо составить постоянный черный список.
+Его можно настроить:
+«Мой профиль» &gt; «Ограничения других пользователей» &gt; «Черный список продавцов».
+Лоты данных пользователей  больше не будут отображаться в списках товаров или в результатах поиска, а также будут исключены из рассылки по подпискам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продажа Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как продавать Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как продать Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продавец размещает свой товар на Viomitra в виде лота.
+Лот – единица существования товара на торговой площадке, имеющая определенные характеристики товара, условия продажи и стоимости. 
+При создании лота система автоматически присваивает ему уникальный идентификационный номер (id), например, 57059501588688, который можно увидеть на каждой странице лота.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как создать лот/выставить его на продажу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это можно сделать с помощью кнопки «Новый лот» на верхней панели сайта. Рекомендуем вам обратить внимание на следующие важные поля на странице "Создание лота" для заполнения:
+• «Название»
+В названии лота используйте слова, которые непосредственно относятся к названию и категории товара, чтобы покупатель мог легко по ключевым словам в поиске найти ваш лот. Максимальное количество символов – 100.
+• «Категория»
+Выберите категорию из предложенного списка наиболее подходящую к товару. Товар, размещенный в неподходящей категории, не будет востребован и может быть снят с торгов. В некоторых категориях необходимо указать ряд дополнительных параметров, таких как: вес, диаметр, металл и т.п. Обязательно укажите, есть ли товар в наличии  или, вы продаете его под заказ!
+• «Фотографии»
+Используйте фотографии, достоверно изображающие ваш товар при хорошем освещении. Желательно делать горизонтальные фото товара на белом или светлом фоне. Максимальный размер для одной фотографии - 10 МБ. Максимальное количество загружаемых фотографий в рамках одного лота – 8. Чтобы поменять местами фотографии, необходимо всего лишь перетащить их мышкой. Первая фотография в списке будет показываться в листинге (в общем списке лотов в категории). Для добавления видео просто вставьте ссылку на youtube с обзором вашего лота в поле «Видео» и нажмите кнопку «Загрузить».
+•  Тип торгов
+1. Открытый аукцион - торг с шагом на увеличение стартовой цены предложения с расширенными опциями, такими как допуск/недопуск участников, закрытое или открытое ценовое предложение, главным отличием от закрытого является возможность шага цены и процесс состязания (беттинг). Закрытый аукцион – торг, в котором пользователи-участники предлагают свои ценовые предложения пользователю-организатору торга по определенному товару/услуге/имуществу, при этом никто не видит ценового предложения до окончания торга (до так называемого вскрытия конверта).
+Ценовое предложение пользователем-участником не может быть ниже стартовой цены. В данном типе аукциона нет шагов по цене, кто предложит большую цену при подаче заявки по товару\услуге\имуществу тот выигрывает предложение. Может быть как с рассмотрением (допуском) участников, так и нет.
+3. Англо-голландский аукцион - торг, который идет в 2 этапа: вначале на понижение до определенной цены пока не найдется первый покупатель, который сделает ставку. После этого действия идет второй этап аукциона на повышение.
+• «Количество»
+Укажите количество имеющихся лотов у Вас в наличии.
+• «Предложение цены»
+Выберите да/нет, может ли покупатель предлагать свою цену на Ваш лот.
+• «Длительность»
+Выберите период нахождения лота в продаже, лот можно выставить на срок до 1, 3, 5, 7, 10, 14, 21 дней.
+• «Автоперевыставление»
+При выставлении или редактировании лот можно перевести в один из режимов:
+- не перевыставлять;
+- перевыставление с изначальным количеством предметов;
+- перевыставление с оставшимся количеством предметов;
+Прервать процесс автоперевыставления можно, досрочно завершив торги по лоту.
+• «Тип продажи»
+Выберите необходимый тип продажи, а именно, с/без юридической силы и с/без рассмотрения заявок.
+• «Оплата и доставка»
+Укажите, кто будет оплачивать доставку - вы или покупатель.
+Укажите регион, в котором находится товар. Местоположение товара может отличаться от местонахождения продавца.
+Укажите способы оплаты лота, а также особое внимание уделите разделу "Способ доставки", поскольку покупатель может проживать как в соседнем с вами доме, так и за несколько тысяч километров. При выборе способов доставки Почтой России, курьерской компанией или других способов доставки/по договоренности укажите минимальную стоимость оплаты доставки. 
+• «Начать торги»
+Выберите время, когда вы желаете начать торги по лоту. Вы можете выставить его сразу, или задать время, с которого начнутся торги, если вы хотите повременить с продажей.
+• «Теги на лоты»
+Вы можете устанавливать теги на лоты. Это можно сделать при выставлении лота или при его редактировании:
+- на один лот можно установить до пяти тегов.
+- теги будут видны на странице лота, на их основе можно смотреть списки таких же или похожих лотов при наличии у них тегов.
+Чтобы посмотреть похожие лоты, можно просто нажать на тег.
+• «Стоимость лота»
+Цена лота зависит от того, с какой цены вы готовы начать торги за ваш лот. Вы можете дать возможность разрешения или запрета на предложение цены покупателем при участии в торгах “Купить сейчас”.
+• «Описание лота»
+Опишите в свободной форме ваш лот, дайте дополнительную информацию о товаре, какие-либо параметры и т.п.
+Обращаем ваше внимание, что в описании запрещается указывать какую-либо контактную информацию и сведения для рекламы сторонних ресурсов!
+• «Обеспечение задатка»
+Вы можете выбрать функцию обеспечения задатка, задать размер задатка, даты внесения и возврата задатка, определить порядок внесения и возврата задатка, а также выбрать счет, на который будет перечислен задаток.
+После того, как вы нажмете кнопку «Выставить лот», вы попадаете на страницу, где будет ссылка на ваш лот, а также предложение о применении рекламных опций к лоту.
+Использование рекламных опций позволяет быстрее и выгоднее продать товар.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Услуги агента Viomitra.Коммерчесакие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С Вами свяжется оператор в ближайшее время. Ожидайте сообщение.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теги-инструменты Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Теги отображаются на странице лота, на их основе можно смотреть списки таких же или похожих лотов с аналогичными тегами.
+Чтобы посмотреть похожие лоты, нужно просто нажать на тег.
+Использование тегов абсолютно бесплатно. Устанавливаются теги при выставлении лота или его редактировании ниже окна с описанием лота.
+Лоты с тегами просматриваются чаще. Главное - правильно подобрать ключевые </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">слова.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим Отпуск Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим `Отпуск` Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим «Отпуск» -  это опция, включение которой дает возможность избежать проблемных вопросов, связанных с оформлением сделок в период отпуска продавца. Рекомендуется использовать данную опцию, если вы имеете действующие лоты и находитесь в отпуске. С включением режима «Отпуск» в лотах появится информация об отпуске продавца. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Последовательность перехода в режим `Отпуск`</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">• зайдите в «Мой профиль»;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">• слева в столбике во вкладке «Мои настройки» нажмите «Режим «Отпуск»;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">• поставьте галочку возле включить «Режим «Отпуск»;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">• выставьте даты отпуска и нажмите «Сохранить изменения»;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">• также можно оставить свой комментарий, который будут видеть пользователи.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструкция заполнения лота Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В этом разделе представлена инструкция по заполнению формы нового лота разных типов торгов.
+"Открытый Аукцион"
+Открытый аукцион – торг с шагом на увеличение стартовой цены предложения с расширенными опциями: допуск/не допуск участников, закрытое/открытое ценовое предложение. Главное отличие от закрытого аукциона – возможность шага цены и процесс состязания (беттинг).
+В графе «количество» Вам необходимо указать количество объектов к размещению. В графе
+«предложить цены» Вы можете выбрать/запретить предложение цены на ваш выставленный товар – до начала торгов.
+В подразделе «Шаг аукциона» предлагается выбрать из трех вариантов.
+Точное значение.
+Вам предлагается выбрать «Размер шага» и «Единица измерения».
+В интервале.
+Предлагается выбрать интервал «от шага до шага» и единицу измерения.
+Шаг не установлен.
+Выберите «Длительность торгов» и выставите «Автоперевыставление».
+Оплата и доставка.
+Вам необходимо выбрать плательщика доставки и указать город и регион.
+Тип сделки, способ оплаты и способ доставки – выберите нужные Вам пункты. Далее назначьте время начала торгов и теги.
+Время – определение.
+Определиться со временем торгов лучше заранее. Вы можете указать точкой отсчета начала торгов момент завершения заполнения формы. Либо настроить дату и время выставления
+объекта на торговую площадку. А можете не выставлять сейчас, а указать время позже, когда примете решение.
+Теги вводятся для ускорения поиска Вашего лота на электронной площадке. Далее следует заполнить пункты «Начальная цена» и «Цена для «купить сейчас». Затем Вам необходимо описать свой лот и указать, нужен ли Вам задаток.
+"Закрытый аукцион"
+Закрытый аукцион – торг, в котором пользователи-участники предлагают свои цены пользователю-организатору торга по определенному товару/услуге/имуществу. При этом никто не видит ценового предложения до окончания торга (до так называемого вскрытия конверта). Ценовое предложение пользователем-участником не может быть ниже стартовой цены.
+В данном типе аукциона нет шагов по цене – кто предложит большую цену при подаче заявки на товар/услугу/имущество, тот выигрывает предложение. Может проходить с рассмотрением (допуском) участников и без допуска.
+Закрытый аукцион не отличается от открытого по заполнению. 
+«Англо-голландский аукцион»
+Англо-голландский аукцион – торг, который проходит в два этапа: вначале «на понижение» до определенной цены, пока не найдется первый покупатель, который сделает ставку. После этого действия начинается второй этап аукциона «на повышение».
+Этап 1. Понижение.
+Тип снижения.
+Следует выбрать, как будет проходить снижение – в процентах, рублях или будет установлена фиксированная цена.
+Предельное значение снижения.
+Здесь Вы можете выставить ту цену, ниже которой не сможет упасть цена. Этап 2. Повышение.
+Точное значение.
+Выберите необходимый показатель в подразделах «Размер шага» и «Единица измерения».
+В интервале.
+Выберите границу от какого до какого шага и единицу измерения.
+Шаг не установлен.
+Вам необходимо выбрать «Длительность торгов» и выставить «Автоперевыставление».
+Оплата и доставка.
+Выбрать того, кто оплачивает доставку, указать «Город и область».
+Далее Вы видите и указываете данные в подразделах тип сделки, способ оплаты и способ доставки.
+Теперь Вам предстоит указать время начала торгов, теги.
+Время выставление.
+Лучше, если время начала торгов Вы определите заранее.
+Можно указать время начала торгов в тот момент, когда завершите заполнение формы. Возможен вариант выставить дату и время выставления объекта на торговую площадку или же вообще не выставлять время, а указать его позже, когда определитесь.
+Теги используются для ускорения поиска вашего лота, поэтому их лучше указать. Например, можно выделить местоположение или вид из окна.
+Далее следует заполнить пункты «Начальная цена» и «Цена для «купить сейчас». Затем Вам необходимо описать свой лот и отметить, нужен ли Вам задаток.</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -141,6 +415,26 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -186,9 +480,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -318,102 +636,901 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="204.94"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="8" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="67" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="55.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="720" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="53.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="27.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="66.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="1086.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/excelQuestions.xlsx
+++ b/excelQuestions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t xml:space="preserve">Регистрация Viomitra.Коммерческие торги</t>
   </si>
@@ -207,28 +207,10 @@
     <t xml:space="preserve">Теги-инструменты Viomitra.Коммерческие торги</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Теги отображаются на странице лота, на их основе можно смотреть списки таких же или похожих лотов с аналогичными тегами.
+    <t xml:space="preserve">Теги отображаются на странице лота, на их основе можно смотреть списки таких же или похожих лотов с аналогичными тегами.
 Чтобы посмотреть похожие лоты, нужно просто нажать на тег.
 Использование тегов абсолютно бесплатно. Устанавливаются теги при выставлении лота или его редактировании ниже окна с описанием лота.
-Лоты с тегами просматриваются чаще. Главное - правильно подобрать ключевые </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">слова.</t>
-    </r>
+Лоты с тегами просматриваются чаще. Главное - правильно подобрать ключевые слова.</t>
   </si>
   <si>
     <t xml:space="preserve">Режим Отпуск Viomitra.Коммерческие торги</t>
@@ -243,96 +225,11 @@
     <t xml:space="preserve">Последовательность перехода в режим `Отпуск`</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">• зайдите в «Мой профиль»;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">• слева в столбике во вкладке «Мои настройки» нажмите «Режим «Отпуск»;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">• поставьте галочку возле включить «Режим «Отпуск»;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">• выставьте даты отпуска и нажмите «Сохранить изменения»;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">• также можно оставить свой комментарий, который будут видеть пользователи.</t>
-    </r>
+    <t xml:space="preserve">• зайдите в «Мой профиль»;
+• слева в столбике во вкладке «Мои настройки» нажмите «Режим «Отпуск»;
+• поставьте галочку возле включить «Режим «Отпуск»;
+• выставьте даты отпуска и нажмите «Сохранить изменения»;
+• также можно оставить свой комментарий, который будут видеть пользователи.</t>
   </si>
   <si>
     <t xml:space="preserve">Инструкция заполнения лота Viomitra.Коммерческие торги</t>
@@ -384,6 +281,397 @@
 Теги используются для ускорения поиска вашего лота, поэтому их лучше указать. Например, можно выделить местоположение или вид из окна.
 Далее следует заполнить пункты «Начальная цена» и «Цена для «купить сейчас». Затем Вам необходимо описать свой лот и отметить, нужен ли Вам задаток.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Возможности продавца Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чёрный список покупателей Viomitra,Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы можете внести покупателя в «Чёрный список покупателей».
+Пользователи из черного списка покупателей не могут принимать участие в торгах по вашим лотам и не смогут задавать вопросы по вашим лотам. При этом все ставки от пользователя, добавленного в черный список, на всех лотах будут сняты системой автоматически. 
+Выполните следующую последовательность действий:
+в «Мой профиль» (наведите курсор на человечка в меню в самом вверху) слева в столбце будет «Ограничения других пользователей»;
+выберите «Черный список покупателей», введите ID или логин пользователя и нажмите «Добавить пользователя»;
+для пользователя из черного списка не происходит ограничений в переписке по существующей сделке, добавить в черный список покупателей можно максимум 400 пользователей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ограничение по рейтингу покупателей Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы можете установить ограничения по рейтингу.  Функция ограничения ставок по рейтингу работает таким образом, что  любой продавец может включить общее ограничение ставок пользователей с рейтингом ниже «0».
+Такое ограничение можно установить в профиле. Слева в столбике во вкладке «Ограничения для покупателей» нажмите «Ограничение по рейтингу».
+При включении данной опции пользователи с рейтингом ниже «0» не смогут покупать и делать ставки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Антиснайпер Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данная опция позволит всем желающим пользователям успеть поучаствовать в торгах. 
+С включенной опцией «Антиснайпер» происходит автоматическое продление торгов на 20 секунд после последней ставки, если ставка сделана за 20 или менее секунд до предполагаемого времени завершения торгов.
+Для включения опции нужно при выставлении лота поставить соответствующую галочку.
+Также можно включить «Антиснайпер» уже в действующем лоте, нажав в самом лоте на «Действия» и во всплывшем окне нажать «Включить антиснайпер».
+При автоперевыставлении лота «Антиснайпер» сохраняется. В действующем лоте «включить» или «отключить» «Антиснайпер» можно до первой ставки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Технические вопросы Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Замена пароля Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пароль можно изменить двумя способами:
+через кнопку «Мой профиль» &gt; «Мои настройки» &gt; «Настройки учетной записи» &gt; «Изменить пароль»
+через кнопку «Войти» &gt; «Забыли пароль».
+Если вы забыли пароль, в предложенную форму введите свой электронный адрес или логин, нажмите кнопку «Войти в профиль» - на ваш электронный адрес будет выслана уникальная ссылка для установки нового пароля.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роль электронной почты Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это важная составляющая учетной записи, которая:
+участвует в механизме подтверждения регистрации и изменений в учетной записи
+может использоваться для входа в учетную запись как логин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Восстановление доступа Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чтобы восстановить пароль необходимо на странице авторизации нажать кнопку «Забыли пароль». В открывшемся окне ввести адрес электронной почты, к которому привязана учетная запись. Далее -  на электронную почту Вам будет выслана специальная ссылка, пройдя по которой, Вы сможете установить новый пароль.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема с авторизацией Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если при попытке авторизации система отвечает: Неверный логин или пароль, необходимо проверить правильность вводимых данных.
+Возможно, при регистрации логина и/или пароля были введены как русские, так и латинские буквы, а при авторизации были перепутаны схожие по написанию символы. Подобные ошибки также могут возникнуть, если во время регистрации при вводе логина и пароля использовались разные раскладки (например логин указан в латинской раскладке,  пароль в русской, а при авторизации используется одинаковая раскладка), или регистры (например, ввели пароль, нажав клавишу «Caps Lock»).
+Если проблему не удается решить самостоятельно, необходимо связаться со Службой поддержки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аватарка пользователя Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На странице лота можно установить аватарку. Аватарка будет видна вашим контрагентам в сообщениях и всем пользователям на странице с отзывами. Визуализация продавца вызывает доверие у покупателей. 
+Аватарку вы можете загрузить через «Мой профиль» &gt; «Мои настройки» &gt; «Настройки учетной записи» &gt; «Загрузить фото».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активность Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вход в «Моя активность» доступен после авторизации. Наведите курсор мыши на панель меню в самом вверху и выберите значок «Моя активность».
+«Моя активность» позволяет:
+• управлять своими лотами;
+• управлять лотами с вашими ставками;
+• наблюдать за избранными лотами;
+• осуществлять массовую загрузку товаров;
+• редактировать информацию о себе;
+• пополнять баланс;
+• вести переписку с контрагентами и многое другое.                                                                                                                                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уведомление Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У пользователей есть возможность настроить уведомления, который поступают на почту. Зайдите в «Мой профиль», «Настройки», нажмите на «Настройки уведомлений». В данном разделе вы можете «включить/выключить» уведомления различных типов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой браузер необходимо использовать Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Три рекомендованных браузера: яндекс браузер, google chrome, mozilla firefox.
+Выберите любой. Перед началом работы на сайте браузер необходимо настроить. Руководство по настройке браузера в разделе ПОМОЩЬ — РУКОВОДСТВА ПО РАБОТЕ С ПЛОЩАДКОЙ. Выбрать «Руководство по настройке браузера для работы с ЭП».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отзывы Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что такое отзыв Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Написание отзывов носит субъективных характер и не является обязательным, однако приветствуется: отзывы помогают другим пользователям оценить надёжность и добросовестность продавцов и покупателей. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">При написании отзыва пользователь выбирает тип отзыва (положительный, нейтральный или отрицательный) и пишет комментарий.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Что должен содержать отзыв Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Описание предмета сделки (товара) – его состояние и соответствие с описанием, которое было предоставлено на странице лота при продаже.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Описание хода сделки (как проходило общение с контрагентом, насколько быстро сделка была завершена и все прочие моменты, имеющие непосредственное отношение к сделке).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Как оставить отзыв Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оставить отзыв по сделке можно в «Моя активность» &gt; «Мои продажи» или «Мои покупки» &gt; слева выбираем «Архив». В карточке лота выбрать:  «Оставить отзыв продавцу/покупателю». Далее ввести текст отзыва (максимальная длина 200 символов). Внимание! Покупатель может оставить отзыв по сделке не ранее, чем через 24 часа после завершения сделки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тарифы Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Перейдите по ссылке - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">https://realty.viomitra.ru/rate</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Сделки с юр.действиями Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какая ЭЦП нужна Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭЦП для физических лиц Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физические лица получают электронную подпись в любом аккредитованном удостоверяющем центре. ЭТП принимает любые сертификаты.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭЦП для юридических лиц и ИП Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индивидуальные предприниматели и юридические лица получают электронную подпись в Удостоверяющем Центре ФНС (федеральной налоговой службы).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не получается подписать документы ЭЦП Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возможно, в Вашем личном кабинете установлен старый сертификат ЭЦП. Вам необходимо прописать новый сертификат в личный кабинет. 
+Как это сделать:
+Зайти в свой личный кабинет - Личные данные - Персональная информация.
+4.Возле поля Сертификат - нажать ссылку "выбрать"
+5.Выбрать Новый сертификат в списке и согласиться с тем что пользователь будет заблокирован до проверки.
+6.Обязательно нажать кнопку СОХРАНИТЬ.
+7.Ожидать проверку операторами площадки (общие сроки рассмотрения указаны в п.7.8 Регламента ЭТП). (ссылка на регламент).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как поменять сертификат в личном кабинете Viomitra.Коммерческие торги</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Новую ЭЦП установить на компьютер.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2.Проверить правильность установки - Помощь - Проверка ЭЦП.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">3.Зайти в свой личный кабинет - Личные данные - Персональная информация.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">4.Возле поля Сертификат - нажать ссылку "выбрать"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">5.Выбрать Новый сертификат в списке и согласиться с тем что пользователь будет заблокирован до проверки.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">6.Обязательно нажать кнопку СОХРАНИТЬ.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">7.Ожидать проверку операторами площадки (общие сроки рассмотрения указаны в п.7.8 Регламента ЭТП).</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -392,7 +680,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -433,7 +721,29 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
@@ -497,19 +807,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -636,10 +946,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -650,7 +960,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="204.94"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,7 +972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -686,7 +996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -700,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -714,7 +1024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -726,7 +1036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="239.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -751,7 +1061,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="67" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -763,7 +1073,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="55.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -790,21 +1100,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="53.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -816,7 +1126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="27.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -830,7 +1140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="66.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="67" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -844,7 +1154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="1086.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="1164" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -855,123 +1165,249 @@
       <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="67.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="67" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="41.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="67.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="121.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="41.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="D27" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="D28" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="54.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="D29" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="41.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="D30" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="0"/>
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="D31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="94.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="D34" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="94.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C35" s="2"/>
+      <c r="D35" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
@@ -1533,6 +1969,9 @@
       <c r="A206" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D31" r:id="rId1" display="https://realty.viomitra.ru/rate"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/excelQuestions.xlsx
+++ b/excelQuestions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t xml:space="preserve">Регистрация Viomitra.Коммерческие торги</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Обсуждение лота до покупки Viomitra.Коммерческие торги</t>
   </si>
   <si>
-    <t xml:space="preserve">обсуждение лота</t>
+    <t xml:space="preserve">обсуждение лота Viomitra.Коммерческие торги</t>
   </si>
   <si>
     <t xml:space="preserve">Уточнить информацию о товаре, доставке и другим вопросам можно через форму. Задать вопрос продавцу можно на странице каждого лота. С помощью данной формы продавец и покупатель общаются до совершения сделки.
@@ -76,7 +76,7 @@
 Вам на почту будет отправлено уведомление о поступлении нового сообщения по лоту. На сайте в верхней панели также появится конвертик, обозначающий соответствующее уведомление.</t>
   </si>
   <si>
-    <t xml:space="preserve">ответ на сообщение по обсуждению</t>
+    <t xml:space="preserve">ответ на сообщение по обсуждению Viomitra.Коммерческие торги</t>
   </si>
   <si>
     <t xml:space="preserve">Посмотреть ответ можно в «Мой профиль» &gt; вкладка «Мои сообщения».
@@ -140,7 +140,7 @@
     <t xml:space="preserve">Как продавать Viomitra.Коммерческие торги</t>
   </si>
   <si>
-    <t xml:space="preserve">Как продать Viomitra.Коммерческие торги</t>
+    <t xml:space="preserve">Как продать Viomitra.Коммерческие торги </t>
   </si>
   <si>
     <t xml:space="preserve">Продавец размещает свой товар на Viomitra в виде лота.
@@ -148,7 +148,7 @@
 При создании лота система автоматически присваивает ему уникальный идентификационный номер (id), например, 57059501588688, который можно увидеть на каждой странице лота.</t>
   </si>
   <si>
-    <t xml:space="preserve">Как создать лот/выставить его на продажу</t>
+    <t xml:space="preserve">Как создать лот/выставить его на продажу Viomitra.Коммерческие торги</t>
   </si>
   <si>
     <t xml:space="preserve">Это можно сделать с помощью кнопки «Новый лот» на верхней панели сайта. Рекомендуем вам обратить внимание на следующие важные поля на странице "Создание лота" для заполнения:
@@ -216,13 +216,10 @@
     <t xml:space="preserve">Режим Отпуск Viomitra.Коммерческие торги</t>
   </si>
   <si>
-    <t xml:space="preserve">Режим `Отпуск` Viomitra.Коммерческие торги</t>
-  </si>
-  <si>
     <t xml:space="preserve">Режим «Отпуск» -  это опция, включение которой дает возможность избежать проблемных вопросов, связанных с оформлением сделок в период отпуска продавца. Рекомендуется использовать данную опцию, если вы имеете действующие лоты и находитесь в отпуске. С включением режима «Отпуск» в лотах появится информация об отпуске продавца. </t>
   </si>
   <si>
-    <t xml:space="preserve">Последовательность перехода в режим `Отпуск`</t>
+    <t xml:space="preserve">Последовательность перехода в режим `Отпуск` Viomitra.Коммерческие торги</t>
   </si>
   <si>
     <t xml:space="preserve">• зайдите в «Мой профиль»;
@@ -388,71 +385,15 @@
     <t xml:space="preserve">Что такое отзыв Viomitra.Коммерческие торги</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Написание отзывов носит субъективных характер и не является обязательным, однако приветствуется: отзывы помогают другим пользователям оценить надёжность и добросовестность продавцов и покупателей. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">При написании отзыва пользователь выбирает тип отзыва (положительный, нейтральный или отрицательный) и пишет комментарий.</t>
-    </r>
+    <t xml:space="preserve">Написание отзывов носит субъективных характер и не является обязательным, однако приветствуется: отзывы помогают другим пользователям оценить надёжность и добросовестность продавцов и покупателей. 
+При написании отзыва пользователь выбирает тип отзыва (положительный, нейтральный или отрицательный) и пишет комментарий.</t>
   </si>
   <si>
     <t xml:space="preserve">Что должен содержать отзыв Viomitra.Коммерческие торги</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Описание предмета сделки (товара) – его состояние и соответствие с описанием, которое было предоставлено на странице лота при продаже.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Описание хода сделки (как проходило общение с контрагентом, насколько быстро сделка была завершена и все прочие моменты, имеющие непосредственное отношение к сделке).</t>
-    </r>
+    <t xml:space="preserve">Описание предмета сделки (товара) – его состояние и соответствие с описанием, которое было предоставлено на странице лота при продаже.
+Описание хода сделки (как проходило общение с контрагентом, насколько быстро сделка была завершена и все прочие моменты, имеющие непосредственное отношение к сделке).</t>
   </si>
   <si>
     <t xml:space="preserve">Как оставить отзыв Viomitra.Коммерческие торги</t>
@@ -464,25 +405,7 @@
     <t xml:space="preserve">Тарифы Viomitra.Коммерческие торги</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Перейдите по ссылке - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">https://realty.viomitra.ru/rate</t>
-    </r>
+    <t xml:space="preserve">Перейдите по ссылке - https://realty.viomitra.ru/rate</t>
   </si>
   <si>
     <t xml:space="preserve">Сделки с юр.действиями Viomitra.Коммерческие торги</t>
@@ -526,139 +449,13 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Новую ЭЦП установить на компьютер.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">2.Проверить правильность установки - Помощь - Проверка ЭЦП.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">3.Зайти в свой личный кабинет - Личные данные - Персональная информация.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">4.Возле поля Сертификат - нажать ссылку "выбрать"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">5.Выбрать Новый сертификат в списке и согласиться с тем что пользователь будет заблокирован до проверки.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">6.Обязательно нажать кнопку СОХРАНИТЬ.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">7.Ожидать проверку операторами площадки (общие сроки рассмотрения указаны в п.7.8 Регламента ЭТП).</t>
+      <t xml:space="preserve">Новую ЭЦП установить на компьютер.
+2.Проверить правильность установки - Помощь - Проверка ЭЦП.
+3.Зайти в свой личный кабинет - Личные данные - Персональная информация.
+4.Возле поля Сертификат - нажать ссылку "выбрать"
+5.Выбрать Новый сертификат в списке и согласиться с тем что пользователь будет заблокирован до проверки.
+6.Обязательно нажать кнопку СОХРАНИТЬ.
+7.Ожидать проверку операторами площадки (общие сроки рассмотрения указаны в п.7.8 Регламента ЭТП).</t>
     </r>
     <r>
       <rPr>
@@ -680,7 +477,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -723,12 +520,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Liberation Serif;Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
@@ -811,12 +602,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -948,8 +739,8 @@
   </sheetPr>
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1086,7 +877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="720" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="344.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1114,7 +905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="53.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1126,18 +917,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="67" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,253 +937,252 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="1164" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="270" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="105.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="67" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="67.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="67" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="41.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="67" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="67.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="119" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="121.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="41.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="6" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="54.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="41.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" s="0"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="7" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="94.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="6" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="94.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,7 +1758,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" display="https://realty.viomitra.ru/rate"/>
+    <hyperlink ref="D31" r:id="rId1" display="Перейдите по ссылке - https://realty.viomitra.ru/rate"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/excelQuestions.xlsx
+++ b/excelQuestions.xlsx
@@ -140,7 +140,7 @@
     <t xml:space="preserve">Как продавать Viomitra.Коммерческие торги</t>
   </si>
   <si>
-    <t xml:space="preserve">Как продать Viomitra.Коммерческие торги </t>
+    <t xml:space="preserve">Как продать Viomitra.Коммерческие торги</t>
   </si>
   <si>
     <t xml:space="preserve">Продавец размещает свой товар на Viomitra в виде лота.
@@ -739,8 +739,8 @@
   </sheetPr>
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -905,7 +905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="53.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="105.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="106" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>

--- a/excelQuestions.xlsx
+++ b/excelQuestions.xlsx
@@ -739,8 +739,8 @@
   </sheetPr>
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1758,7 +1758,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" display="Перейдите по ссылке - https://realty.viomitra.ru/rate"/>
+    <hyperlink ref="D31" r:id="rId1" display="https://realty.viomitra.ru/rate"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
